--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H2">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I2">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J2">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>5945.588905366494</v>
+        <v>6862.466366509335</v>
       </c>
       <c r="R2">
-        <v>5945.588905366494</v>
+        <v>61762.19729858402</v>
       </c>
       <c r="S2">
-        <v>0.0741088580939384</v>
+        <v>0.07636388884288293</v>
       </c>
       <c r="T2">
-        <v>0.0741088580939384</v>
+        <v>0.08623003028162549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H3">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I3">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J3">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>6658.863382503812</v>
+        <v>7343.827462769125</v>
       </c>
       <c r="R3">
-        <v>6658.863382503812</v>
+        <v>66094.44716492214</v>
       </c>
       <c r="S3">
-        <v>0.08299947563402534</v>
+        <v>0.0817203603044354</v>
       </c>
       <c r="T3">
-        <v>0.08299947563402534</v>
+        <v>0.09227855273551279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H4">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I4">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J4">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>3425.805154534989</v>
+        <v>3687.575685900586</v>
       </c>
       <c r="R4">
-        <v>3425.805154534989</v>
+        <v>33188.18117310527</v>
       </c>
       <c r="S4">
-        <v>0.04270098590667135</v>
+        <v>0.04103446264627271</v>
       </c>
       <c r="T4">
-        <v>0.04270098590667135</v>
+        <v>0.04633607599343864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H5">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I5">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J5">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>4075.744790799495</v>
+        <v>4213.07946798795</v>
       </c>
       <c r="R5">
-        <v>4075.744790799495</v>
+        <v>37917.71521189155</v>
       </c>
       <c r="S5">
-        <v>0.05080216562834321</v>
+        <v>0.04688214338649124</v>
       </c>
       <c r="T5">
-        <v>0.05080216562834321</v>
+        <v>0.05293927149522611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H6">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I6">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J6">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>8042.439734044402</v>
+        <v>8403.428946836821</v>
       </c>
       <c r="R6">
-        <v>8042.439734044402</v>
+        <v>50420.57368102093</v>
       </c>
       <c r="S6">
-        <v>0.1002450782363011</v>
+        <v>0.09351135287555931</v>
       </c>
       <c r="T6">
-        <v>0.1002450782363011</v>
+        <v>0.07039528685018209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H7">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J7">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>706.3840034964942</v>
+        <v>862.4781543124817</v>
       </c>
       <c r="R7">
-        <v>706.3840034964942</v>
+        <v>7762.303388812335</v>
       </c>
       <c r="S7">
-        <v>0.008804731155848873</v>
+        <v>0.00959745117684776</v>
       </c>
       <c r="T7">
-        <v>0.008804731155848873</v>
+        <v>0.01083743269425094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H8">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J8">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>791.1267747798158</v>
+        <v>922.9758540733264</v>
       </c>
       <c r="R8">
-        <v>791.1267747798158</v>
+        <v>8306.782686659939</v>
       </c>
       <c r="S8">
-        <v>0.009861008357566311</v>
+        <v>0.01027065514945057</v>
       </c>
       <c r="T8">
-        <v>0.009861008357566311</v>
+        <v>0.01159761397656736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H9">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J9">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>407.0133335446581</v>
+        <v>463.4563291974123</v>
       </c>
       <c r="R9">
-        <v>407.0133335446581</v>
+        <v>4171.106962776711</v>
       </c>
       <c r="S9">
-        <v>0.0050732221581577</v>
+        <v>0.005157231484453005</v>
       </c>
       <c r="T9">
-        <v>0.0050732221581577</v>
+        <v>0.005823540862209264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H10">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J10">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>484.2314139741991</v>
+        <v>529.5019034636629</v>
       </c>
       <c r="R10">
-        <v>484.2314139741991</v>
+        <v>4765.517131172966</v>
       </c>
       <c r="S10">
-        <v>0.006035707768233097</v>
+        <v>0.005892170881234014</v>
       </c>
       <c r="T10">
-        <v>0.006035707768233097</v>
+        <v>0.006653433726491966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H11">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J11">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>955.5068249144913</v>
+        <v>1056.147090692491</v>
       </c>
       <c r="R11">
-        <v>955.5068249144913</v>
+        <v>6336.882544154946</v>
       </c>
       <c r="S11">
-        <v>0.01190992529461012</v>
+        <v>0.01175255290561079</v>
       </c>
       <c r="T11">
-        <v>0.01190992529461012</v>
+        <v>0.008847314337472779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H12">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I12">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J12">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>3423.69624731253</v>
+        <v>4149.492161739496</v>
       </c>
       <c r="R12">
-        <v>3423.69624731253</v>
+        <v>37345.42945565547</v>
       </c>
       <c r="S12">
-        <v>0.04267469940947651</v>
+        <v>0.04617455900984894</v>
       </c>
       <c r="T12">
-        <v>0.04267469940947651</v>
+        <v>0.0521402678935341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H13">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I13">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J13">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>3834.426822457855</v>
+        <v>4440.554294392589</v>
       </c>
       <c r="R13">
-        <v>3834.426822457855</v>
+        <v>39964.9886495333</v>
       </c>
       <c r="S13">
-        <v>0.04779425516631879</v>
+        <v>0.04941342899583024</v>
       </c>
       <c r="T13">
-        <v>0.04779425516631879</v>
+        <v>0.05579759678551922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H14">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I14">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J14">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>1972.708917197223</v>
+        <v>2229.747380495932</v>
       </c>
       <c r="R14">
-        <v>1972.708917197223</v>
+        <v>20067.72642446338</v>
       </c>
       <c r="S14">
-        <v>0.02458885192571252</v>
+        <v>0.02481209699516698</v>
       </c>
       <c r="T14">
-        <v>0.02458885192571252</v>
+        <v>0.02801779620791643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H15">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I15">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J15">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>2346.968881866156</v>
+        <v>2547.501043432301</v>
       </c>
       <c r="R15">
-        <v>2346.968881866156</v>
+        <v>22927.50939089071</v>
       </c>
       <c r="S15">
-        <v>0.02925381935843525</v>
+        <v>0.02834798396348948</v>
       </c>
       <c r="T15">
-        <v>0.02925381935843525</v>
+        <v>0.03201051639242902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H16">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I16">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J16">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>4631.142713521952</v>
+        <v>5081.258061505247</v>
       </c>
       <c r="R16">
-        <v>4631.142713521952</v>
+        <v>30487.54836903148</v>
       </c>
       <c r="S16">
-        <v>0.05772492912508543</v>
+        <v>0.05654302769110141</v>
       </c>
       <c r="T16">
-        <v>0.05772492912508543</v>
+        <v>0.04256555521113848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H17">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I17">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J17">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>5529.680003075725</v>
+        <v>6828.858395910535</v>
       </c>
       <c r="R17">
-        <v>5529.680003075725</v>
+        <v>61459.72556319481</v>
       </c>
       <c r="S17">
-        <v>0.06892475702162042</v>
+        <v>0.07598990736246847</v>
       </c>
       <c r="T17">
-        <v>0.06892475702162042</v>
+        <v>0.08580773075144758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H18">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I18">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J18">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>6193.059136027636</v>
+        <v>7307.862093429625</v>
       </c>
       <c r="R18">
-        <v>6193.059136027636</v>
+        <v>65770.75884086663</v>
       </c>
       <c r="S18">
-        <v>0.07719345349709304</v>
+        <v>0.08132014625313772</v>
       </c>
       <c r="T18">
-        <v>0.07719345349709304</v>
+        <v>0.09182663141137049</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H19">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I19">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J19">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>3186.161465076631</v>
+        <v>3669.516298995985</v>
       </c>
       <c r="R19">
-        <v>3186.161465076631</v>
+        <v>33025.64669096387</v>
       </c>
       <c r="S19">
-        <v>0.03971394451214316</v>
+        <v>0.04083350209645001</v>
       </c>
       <c r="T19">
-        <v>0.03971394451214316</v>
+        <v>0.0461091515326863</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H20">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I20">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J20">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>3790.636188617346</v>
+        <v>4192.4464997039</v>
       </c>
       <c r="R20">
-        <v>3790.636188617346</v>
+        <v>37732.0184973351</v>
       </c>
       <c r="S20">
-        <v>0.04724842633072596</v>
+        <v>0.04665254463694671</v>
       </c>
       <c r="T20">
-        <v>0.04724842633072596</v>
+        <v>0.05268000880672444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H21">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I21">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J21">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>7479.850840872367</v>
+        <v>8362.274327215997</v>
       </c>
       <c r="R21">
-        <v>7479.850840872367</v>
+        <v>50173.64596329597</v>
       </c>
       <c r="S21">
-        <v>0.09323268280955371</v>
+        <v>0.09305339408490744</v>
       </c>
       <c r="T21">
-        <v>0.09323268280955371</v>
+        <v>0.07005053576443529</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H22">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I22">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J22">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>1340.575540198493</v>
+        <v>1509.428363227391</v>
       </c>
       <c r="R22">
-        <v>1340.575540198493</v>
+        <v>9056.570179364344</v>
       </c>
       <c r="S22">
-        <v>0.01670961851787345</v>
+        <v>0.01679655878654927</v>
       </c>
       <c r="T22">
-        <v>0.01670961851787345</v>
+        <v>0.0126444387501116</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H23">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I23">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J23">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>1501.400368944237</v>
+        <v>1615.305762524335</v>
       </c>
       <c r="R23">
-        <v>1501.400368944237</v>
+        <v>9691.834575146009</v>
       </c>
       <c r="S23">
-        <v>0.01871422135893813</v>
+        <v>0.01797473723130542</v>
       </c>
       <c r="T23">
-        <v>0.01871422135893813</v>
+        <v>0.01353137073247401</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H24">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I24">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J24">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>772.4298919338814</v>
+        <v>811.0977940832246</v>
       </c>
       <c r="R24">
-        <v>772.4298919338814</v>
+        <v>4866.586764499348</v>
       </c>
       <c r="S24">
-        <v>0.009627960856354497</v>
+        <v>0.009025702783820654</v>
       </c>
       <c r="T24">
-        <v>0.009627960856354497</v>
+        <v>0.006794543303603569</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H25">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I25">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J25">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>918.9743626078078</v>
+        <v>926.68456293604</v>
       </c>
       <c r="R25">
-        <v>918.9743626078078</v>
+        <v>5560.107377616239</v>
       </c>
       <c r="S25">
-        <v>0.01145456601767382</v>
+        <v>0.01031192477704758</v>
       </c>
       <c r="T25">
-        <v>0.01145456601767382</v>
+        <v>0.007762810400398912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H26">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I26">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J26">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>1813.360823054721</v>
+        <v>1848.369569084477</v>
       </c>
       <c r="R26">
-        <v>1813.360823054721</v>
+        <v>7393.47827633791</v>
       </c>
       <c r="S26">
-        <v>0.02260265585929976</v>
+        <v>0.02056821567869209</v>
       </c>
       <c r="T26">
-        <v>0.02260265585929976</v>
+        <v>0.01032249310323314</v>
       </c>
     </row>
   </sheetData>
